--- a/bots/crawl_ch/output/bread_coop_2023-02-20.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-20.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Dinkel-Kuchenteig rund ausgewallt Ø32cm 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Dinkel-Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9427,45 +9427,45 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6384092</t>
+          <t>3040362</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück</t>
+          <t>Finn Crisp 200G</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/finn-crisp-200g/p/3040362</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Finn Crisp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9485,56 +9485,56 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Finn Crisp 200G 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3040362</t>
+          <t>6384092</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Finn Crisp 200G</t>
+          <t>Bauli Croissant Chocolate 6 Stück</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/finn-crisp-200g/p/3040362</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Finn Crisp</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9554,18 +9554,18 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Finn Crisp 200G 2.60 Schweizer Franken</t>
+          <t>Bauli Croissant Chocolate 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10620,45 +10620,45 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>4035524</t>
+          <t>4888081</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parisette</t>
+          <t>Appenzeller Bärli-Biber 6x43g</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/parisette/p/4035524</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-6x43g/p/4888081</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>2.02/100g</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10678,43 +10678,43 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Parisette 0.95 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber 6x43g 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>4035524</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>Parisette</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/parisette/p/4035524</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10726,12 +10726,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10751,60 +10751,60 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+          <t>Parisette 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>4888081</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber 6x43g</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-6x43g/p/4888081</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2.02/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10824,22 +10824,22 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber 6x43g 5.20 Schweizer Franken</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12835,45 +12835,45 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12893,46 +12893,42 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -12941,12 +12937,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12956,7 +12952,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12966,42 +12962,46 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr"/>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -13010,12 +13010,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13035,42 +13035,42 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6589691</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E178" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -13079,12 +13079,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13104,60 +13104,56 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>6589691</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Prix Garantie Roggenbrot</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13167,7 +13163,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13177,18 +13173,22 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13472,45 +13472,45 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>5732887</t>
+          <t>4960272</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
+          <t>Roland Guezli Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13530,60 +13530,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6628846</t>
+          <t>5732887</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Zitronencake</t>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13593,7 +13589,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13603,56 +13599,60 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Zitronencake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr"/>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>6628846</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Zitronencake</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13672,56 +13672,56 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Zitronencake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13741,56 +13741,56 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+          <t>Old el Paso Wraps Whole Wheats 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>4960272</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E188" t="n">
         <v>4.5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13800,7 +13800,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13810,18 +13810,18 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15886,7 +15886,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17006,45 +17006,45 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E234" t="n">
         <v>4.5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17064,56 +17064,60 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 30% ab 2 Aktion 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr"/>
+          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E235" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17123,7 +17127,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17133,60 +17137,56 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 8St 30% ab 2 Aktion 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17206,22 +17206,22 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17929,7 +17929,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17998,45 +17998,45 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E248" t="n">
         <v>3</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18056,56 +18056,60 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr"/>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E249" t="n">
         <v>3</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18115,7 +18119,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18125,22 +18129,18 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18282,7 +18282,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18351,7 +18351,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18420,7 +18420,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18566,7 +18566,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18854,45 +18854,45 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E260" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18902,7 +18902,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18912,56 +18912,60 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E261" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18971,7 +18975,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18981,60 +18985,60 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E262" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19044,7 +19048,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19054,60 +19058,56 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E263" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19117,7 +19117,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19127,22 +19127,22 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19215,43 +19215,45 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>8</v>
+      </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19261,7 +19263,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19276,51 +19278,49 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19340,60 +19340,56 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E267" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19403,7 +19399,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19413,46 +19409,46 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E268" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -19461,12 +19457,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19476,7 +19472,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19486,56 +19482,60 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E269" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19555,56 +19555,56 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E270" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19614,7 +19614,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19624,56 +19624,56 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19683,7 +19683,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19693,56 +19693,56 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19762,18 +19762,18 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19842,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19911,43 +19911,45 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>4</v>
+      </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19957,7 +19959,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19967,56 +19969,58 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 20% ab 2 Aktion 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr"/>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20026,7 +20030,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20036,60 +20040,56 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Classic 20% ab 2 Aktion 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20109,22 +20109,22 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20193,43 +20193,45 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20</v>
+      </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20239,7 +20241,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20254,37 +20256,35 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6629585</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -20293,12 +20293,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>1.91/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20323,51 +20323,51 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6629585</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Betty Bossi Marmor Cake</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E281" t="n">
         <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>1.91/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20377,7 +20377,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20387,56 +20387,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E282" t="n">
         <v>4.5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20456,18 +20456,18 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20682,7 +20682,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21171,7 +21171,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21524,45 +21524,45 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E298" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21582,60 +21582,56 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E299" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21645,7 +21641,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21655,56 +21651,60 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E300" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21729,51 +21729,51 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E301" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21783,7 +21783,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21798,13 +21798,13 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22498,45 +22498,45 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22556,56 +22556,60 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E313" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22615,7 +22619,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22625,60 +22629,56 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22698,60 +22698,60 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E315" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22771,22 +22771,22 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22926,45 +22926,45 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E318" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22984,56 +22984,56 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23043,7 +23043,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23053,18 +23053,18 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23206,7 +23206,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23275,45 +23275,45 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6667340</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23333,60 +23333,56 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>6667340</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Karma Bio Steinofenbrot mit Hanf</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E324" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23396,7 +23392,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23406,56 +23402,60 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr"/>
+          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E325" t="n">
         <v>4.5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23465,7 +23465,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23475,18 +23475,18 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23555,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23624,7 +23624,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23693,7 +23693,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23760,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23896,7 +23896,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23969,7 +23969,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24038,7 +24038,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24111,7 +24111,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24178,45 +24178,43 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
-        </is>
-      </c>
-      <c r="D336" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24226,7 +24224,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24236,54 +24234,56 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>2</v>
+      </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24293,7 +24293,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24303,56 +24303,60 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24362,7 +24366,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24372,22 +24376,18 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24598,24 +24598,24 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -24626,17 +24626,17 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24646,7 +24646,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24656,35 +24656,35 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -24695,17 +24695,17 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24715,7 +24715,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24725,18 +24725,18 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24874,7 +24874,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -24943,43 +24943,45 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>3</v>
+      </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24989,7 +24991,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -24999,60 +25001,58 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 30% ab 2 Aktion 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25077,30 +25077,34 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr"/>
+          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -25111,17 +25115,17 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25131,7 +25135,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25141,56 +25145,56 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E350" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25200,7 +25204,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25210,22 +25214,18 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 30% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25578,7 +25578,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25647,45 +25647,45 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E357" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25705,18 +25705,18 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25785,45 +25785,45 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E359" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25833,7 +25833,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25843,18 +25843,18 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26138,7 +26138,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26353,7 +26353,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26637,7 +26637,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27055,7 +27055,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27128,7 +27128,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27197,7 +27197,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27335,7 +27335,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27473,7 +27473,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27540,7 +27540,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27609,7 +27609,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27676,7 +27676,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27749,7 +27749,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27761,12 +27761,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Frischback Pagnol-brot</t>
+          <t>Frischback Pagnolbrot</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnol-brot/p/6583113</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnolbrot/p/6583113</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -27810,7 +27810,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Frischback Pagnol-brot 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Frischback Pagnolbrot 20% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27887,7 +27887,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -27954,7 +27954,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
@@ -28021,7 +28021,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-20 12:56:54</t>
+          <t>2023-02-20 20:49:26</t>
         </is>
       </c>
     </row>
